--- a/testData/126MailContact.xlsx
+++ b/testData/126MailContact.xlsx
@@ -48,7 +48,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>failed</t>
+    <t>pass</t>
   </si>
   <si>
     <t>yyy</t>
@@ -151,38 +151,21 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -197,68 +180,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -273,14 +195,31 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -292,6 +231,67 @@
       <sz val="18"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -302,13 +302,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,169 +416,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,6 +511,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -526,17 +565,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,8 +591,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -573,41 +608,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -616,10 +616,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="6" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="19" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -628,133 +628,133 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="9" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="17" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="17" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="13" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="14" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="2" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="5" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -762,13 +762,13 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -1123,68 +1123,68 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="3" width="27.125"/>
-    <col customWidth="1" max="3" min="3" style="3" width="22.375"/>
-    <col customWidth="1" max="4" min="4" style="3" width="12.5"/>
+    <col customWidth="1" max="2" min="2" style="1" width="27.125"/>
+    <col customWidth="1" max="3" min="3" style="1" width="22.375"/>
+    <col customWidth="1" max="4" min="4" style="1" width="12.5"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="1" s="3" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row customHeight="1" ht="16.5" r="1" s="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="2" s="3" spans="1:6">
-      <c r="A2" s="1" t="n">
+    <row customHeight="1" ht="16.5" r="2" s="1" spans="1:6">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="3" s="3" spans="1:6">
-      <c r="A3" s="1" t="n">
+    <row customHeight="1" ht="16.5" r="3" s="1" spans="1:6">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="n"/>
+      <c r="F3" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1201,160 +1201,162 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="4"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="3" width="14.5"/>
-    <col customWidth="1" max="3" min="3" style="3" width="18.875"/>
-    <col customWidth="1" max="4" min="4" style="3" width="20.25"/>
-    <col customWidth="1" max="5" min="5" style="3" width="18.5"/>
-    <col customWidth="1" max="6" min="6" style="3" width="17.25"/>
-    <col customWidth="1" max="7" min="7" style="3" width="22.75"/>
-    <col customWidth="1" max="8" min="8" style="3" width="12.625"/>
-    <col customWidth="1" max="10" min="10" style="3" width="13.625"/>
+    <col customWidth="1" max="2" min="2" style="1" width="14.5"/>
+    <col customWidth="1" max="3" min="3" style="1" width="18.875"/>
+    <col customWidth="1" max="4" min="4" style="1" width="20.25"/>
+    <col customWidth="1" max="5" min="5" style="1" width="18.5"/>
+    <col customWidth="1" max="6" min="6" style="1" width="17.25"/>
+    <col customWidth="1" max="7" min="7" style="1" width="22.75"/>
+    <col customWidth="1" max="8" min="8" style="1" width="12.625"/>
+    <col customWidth="1" max="10" min="10" style="1" width="13.625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="1" s="3" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row customHeight="1" ht="16.5" r="1" s="1" spans="1:10">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="2" s="3" spans="1:10">
-      <c r="A2" s="1" t="n">
+    <row customHeight="1" ht="16.5" r="2" s="1" spans="1:10">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <v>13691579847</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="16.5" r="3" s="1" spans="1:10">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>13691579848</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="n"/>
-      <c r="J2" s="1" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="3" s="3" spans="1:10">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row customHeight="1" ht="16.5" r="4" s="1" spans="1:10">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>13691579849</v>
+      </c>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="16.5" r="5" s="1" spans="1:10">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>13691579848</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="E5" s="2" t="n">
+        <v>13691579850</v>
+      </c>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="n"/>
-      <c r="J3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="16.5" r="4" s="3" spans="1:10">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>13691579849</v>
-      </c>
-      <c r="F4" s="1" t="n"/>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1" t="n"/>
-      <c r="J4" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="16.5" r="5" s="3" spans="1:10">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>13691579850</v>
-      </c>
-      <c r="F5" s="1" t="n"/>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1" t="n"/>
-      <c r="J5" s="1" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/testData/126MailContact.xlsx
+++ b/testData/126MailContact.xlsx
@@ -13,110 +13,6 @@
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>用户名</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>数据表</t>
-  </si>
-  <si>
-    <t>是否执行</t>
-  </si>
-  <si>
-    <t>测试结果</t>
-  </si>
-  <si>
-    <t>linuxxiaochao</t>
-  </si>
-  <si>
-    <t>xiaochao11520</t>
-  </si>
-  <si>
-    <t>126contact</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>yyy</t>
-  </si>
-  <si>
-    <t>yyyy</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>联系人姓名</t>
-  </si>
-  <si>
-    <t>联系人邮箱</t>
-  </si>
-  <si>
-    <t>是否设为星标联系人</t>
-  </si>
-  <si>
-    <t>联系人手机号</t>
-  </si>
-  <si>
-    <t>联系人备注信息</t>
-  </si>
-  <si>
-    <t>验证页面包含的关键字</t>
-  </si>
-  <si>
-    <t>执行时间</t>
-  </si>
-  <si>
-    <t>lily</t>
-  </si>
-  <si>
-    <t>lily@qq.com</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>常联系人</t>
-  </si>
-  <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>zhangsan@qq.com</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>不常联系人</t>
-  </si>
-  <si>
-    <t>amy</t>
-  </si>
-  <si>
-    <t>amy@qq.com</t>
-  </si>
-  <si>
-    <t>李四</t>
-  </si>
-  <si>
-    <t>lisi@qq.com</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1128,61 +1024,91 @@
     <col customWidth="1" max="4" min="4" style="1" width="12.5"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="1" s="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
+    <row customHeight="1" ht="16.5" r="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>用户名</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>密码</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>数据表</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="2" s="1" spans="1:6">
+    <row customHeight="1" ht="16.5" r="2" s="1">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>linuxxiaochao</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>xiaochao11520</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>126contact</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="3" s="1" spans="1:6">
+    <row customHeight="1" ht="16.5" r="3" s="1">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>yyy</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>yyyy</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>126contact</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
       </c>
       <c r="F3" s="2" t="n"/>
     </row>
@@ -1216,156 +1142,228 @@
     <col customWidth="1" max="10" min="10" style="1" width="13.625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="1" s="1" spans="1:10">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
+    <row customHeight="1" ht="16.5" r="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>联系人姓名</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>联系人邮箱</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>是否设为星标联系人</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>联系人手机号</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>联系人备注信息</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>验证页面包含的关键字</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>执行时间</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="2" s="1" spans="1:10">
+    <row customHeight="1" ht="16.5" r="2" s="1">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>lily</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>lily@qq.com</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
       </c>
       <c r="E2" s="2" t="n">
         <v>13691579847</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>常联系人</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>lily@qq.com</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
       </c>
       <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="3" s="1" spans="1:10">
+    <row customHeight="1" ht="16.5" r="3" s="1">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>zhangsan@qq.com</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
       </c>
       <c r="E3" s="2" t="n">
         <v>13691579848</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>不常联系人</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>zhangsan@qq.com</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
       </c>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="4" s="1" spans="1:10">
+    <row customHeight="1" ht="16.5" r="4" s="1">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>amy</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>amy@qq.com</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
       </c>
       <c r="E4" s="2" t="n">
         <v>13691579849</v>
       </c>
       <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>13</v>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>amy</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
       </c>
       <c r="I4" s="2" t="n"/>
       <c r="J4" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="5" s="1" spans="1:10">
+    <row customHeight="1" ht="16.5" r="5" s="1">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>lisi@qq.com</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
       </c>
       <c r="E5" s="2" t="n">
         <v>13691579850</v>
       </c>
       <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
       </c>
       <c r="I5" s="2" t="n"/>
       <c r="J5" s="2" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="lily@qq.com" ref="C2" r:id="rId1"/>
-    <hyperlink display="lily@qq.com" ref="G2" r:id="rId2"/>
-    <hyperlink display="zhangsan@qq.com" ref="C3" r:id="rId3"/>
-    <hyperlink display="zhangsan@qq.com" ref="G3" r:id="rId4"/>
-    <hyperlink display="amy@qq.com" ref="C4" r:id="rId5"/>
-    <hyperlink display="lisi@qq.com" ref="C5" r:id="rId6"/>
+    <hyperlink display="lily@qq.com" ref="C2" r:id="rId7"/>
+    <hyperlink display="lily@qq.com" ref="G2" r:id="rId8"/>
+    <hyperlink display="zhangsan@qq.com" ref="C3" r:id="rId9"/>
+    <hyperlink display="zhangsan@qq.com" ref="G3" r:id="rId10"/>
+    <hyperlink display="amy@qq.com" ref="C4" r:id="rId11"/>
+    <hyperlink display="lisi@qq.com" ref="C5" r:id="rId12"/>
+    <hyperlink display="lily@qq.com" ref="C2" r:id="rId7"/>
+    <hyperlink display="lily@qq.com" ref="G2" r:id="rId8"/>
+    <hyperlink display="zhangsan@qq.com" ref="C3" r:id="rId9"/>
+    <hyperlink display="zhangsan@qq.com" ref="G3" r:id="rId10"/>
+    <hyperlink display="amy@qq.com" ref="C4" r:id="rId11"/>
+    <hyperlink display="lisi@qq.com" ref="C5" r:id="rId12"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/testData/126MailContact.xlsx
+++ b/testData/126MailContact.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7785" windowWidth="19935"/>
+    <workbookView windowWidth="19935" windowHeight="7785"/>
   </bookViews>
   <sheets>
-    <sheet name="126account" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="126contact" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="126account" sheetId="1" r:id="rId1"/>
+    <sheet name="126contact" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>序号</t>
   </si>
@@ -36,10 +36,10 @@
     <t>测试结果</t>
   </si>
   <si>
-    <t>linuxxiaochao</t>
-  </si>
-  <si>
-    <t>xiaochao11520</t>
+    <t>linux</t>
+  </si>
+  <si>
+    <t>chao</t>
   </si>
   <si>
     <t>126contact</t>
@@ -122,222 +122,360 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="华文宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="华文宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="华文宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -345,144 +483,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,30 +511,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -546,6 +522,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,9 +561,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,239 +594,239 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="19" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="9" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="17" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="17" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="13" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1110,25 +1115,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="27.125"/>
-    <col customWidth="1" max="3" min="3" style="1" width="22.375"/>
-    <col customWidth="1" max="4" min="4" style="1" width="12.5"/>
+    <col min="2" max="2" width="27.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="1" s="1" spans="1:6">
+    <row r="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1148,8 +1150,8 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="2" s="1" spans="1:6">
-      <c r="A2" s="2" t="n">
+    <row r="2" ht="16.5" customHeight="1" spans="1:6">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1168,8 +1170,8 @@
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="3" s="1" spans="1:6">
-      <c r="A3" s="2" t="n">
+    <row r="3" ht="16.5" customHeight="1" spans="1:6">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1184,39 +1186,37 @@
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="n"/>
+      <c r="F3" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="14.5"/>
-    <col customWidth="1" max="3" min="3" style="1" width="18.875"/>
-    <col customWidth="1" max="4" min="4" style="1" width="20.25"/>
-    <col customWidth="1" max="5" min="5" style="1" width="18.5"/>
-    <col customWidth="1" max="6" min="6" style="1" width="17.25"/>
-    <col customWidth="1" max="7" min="7" style="1" width="22.75"/>
-    <col customWidth="1" max="8" min="8" style="1" width="12.625"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13.625"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="1" s="1" spans="1:10">
+    <row r="1" ht="16.5" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1248,8 +1248,8 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="2" s="1" spans="1:10">
-      <c r="A2" s="2" t="n">
+    <row r="2" ht="16.5" customHeight="1" spans="1:10">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1261,7 +1261,7 @@
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2">
         <v>13691579847</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1273,13 +1273,13 @@
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="n"/>
+      <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="3" s="1" spans="1:10">
-      <c r="A3" s="2" t="n">
+    <row r="3" ht="16.5" customHeight="1" spans="1:10">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1291,7 +1291,7 @@
       <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2">
         <v>13691579848</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1303,11 +1303,11 @@
       <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
-    <row customHeight="1" ht="16.5" r="4" s="1" spans="1:10">
-      <c r="A4" s="2" t="n">
+    <row r="4" ht="16.5" customHeight="1" spans="1:10">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1319,21 +1319,21 @@
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2">
         <v>13691579849</v>
       </c>
-      <c r="F4" s="2" t="n"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
-    <row customHeight="1" ht="16.5" r="5" s="1" spans="1:10">
-      <c r="A5" s="2" t="n">
+    <row r="5" ht="16.5" customHeight="1" spans="1:10">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1345,48 +1345,47 @@
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>13691579850</v>
       </c>
-      <c r="F5" s="2" t="n"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="lily@qq.com" ref="C2" r:id="rId1"/>
-    <hyperlink display="lily@qq.com" ref="G2" r:id="rId2"/>
-    <hyperlink display="zhangsan@qq.com" ref="C3" r:id="rId3"/>
-    <hyperlink display="zhangsan@qq.com" ref="G3" r:id="rId4"/>
-    <hyperlink display="amy@qq.com" ref="C4" r:id="rId5"/>
-    <hyperlink display="lisi@qq.com" ref="C5" r:id="rId6"/>
+    <hyperlink ref="C2" r:id="rId1" display="lily@qq.com"/>
+    <hyperlink ref="G2" r:id="rId1" display="lily@qq.com"/>
+    <hyperlink ref="C3" r:id="rId2" display="zhangsan@qq.com"/>
+    <hyperlink ref="G3" r:id="rId2" display="zhangsan@qq.com"/>
+    <hyperlink ref="C4" r:id="rId3" display="amy@qq.com"/>
+    <hyperlink ref="C5" r:id="rId4" display="lisi@qq.com"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>